--- a/mqtt_data.xlsx
+++ b/mqtt_data.xlsx
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pending...</t>
+          <t>Washing Machine</t>
         </is>
       </c>
     </row>
